--- a/Listado pendientes.xlsx
+++ b/Listado pendientes.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,11 +451,17 @@
       <c r="A7" t="str">
         <v>Sin chacras</v>
       </c>
+      <c r="B7" t="str">
+        <v>done</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
         <v>Sacar casas que tienen más de 2000 metros de superficie</v>
       </c>
+      <c r="B8" t="str">
+        <v>EDA</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -581,6 +587,9 @@
       <c r="B24" t="str">
         <v>ver con vero y nati, las dropeamos? (podemos tmb dejarlo en blanco los que esten mal)</v>
       </c>
+      <c r="C24" t="str">
+        <v>EDA</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -589,6 +598,9 @@
       <c r="B25" t="str">
         <v xml:space="preserve">dropear? ver con vero y nati </v>
       </c>
+      <c r="C25" t="str">
+        <v>EDA</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -647,7 +659,7 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B33"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C33"/>
   </ignoredErrors>
 </worksheet>
 </file>